--- a/data/高端人才 - 部委引才计划.xlsx
+++ b/data/高端人才 - 部委引才计划.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21570" windowHeight="9930"/>
+    <workbookView windowWidth="23280" windowHeight="10350"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34">
   <si>
     <t>部委</t>
   </si>
@@ -24,56 +24,102 @@
     <t>引才计划</t>
   </si>
   <si>
-    <t>说明</t>
-  </si>
-  <si>
     <t>人力资源社会保障部</t>
   </si>
   <si>
     <t>赤子计划</t>
   </si>
   <si>
-    <t xml:space="preserve">
-“赤子计划”全称“海外赤子为国服务行动计划”，是人社部2009年提出来的一项智力报国计划。
-“海外赤子为国服务行动计划”具体包括以下六类：(一)人力资源社会保障部组织的示范性留学人员为国服务活动；  
-(二)人力资源社会保障部留学人员和专家服务中心组织的留学人员为国服务活动；  
-(三)人力资源社会保障部与各地方人民政府联合主办大型留学人员人才项目交流及为国服务活动；  
-(四)人力资源社会保障部资助支持由地方人力资源社会保障部门具体组织的留学人员为国服务活动； 
-(五)人力资源社会保障部资助支持由有关部门具体组织的留学人员为国服务活动；  
-(六)人力资源社会保障部资助支持由海外留学人员团体具体组织的为国服务活动。
-“海外赤子为国服务行动计划”的申报、遴选和组织实施按照以下程序进行：
-(一)各地各部门于每年2月底前将当年拟组织的留学人员为国服务活动计划报送人力资源社会保障部;
-(二)人力资源社会保障部根据当年为国服务活动的整体安排和重点资助方向，经过评估后，按照不同类型和规模，遴选纳入当年“海外赤子为国服务行动计划”;
-(三)人力资源社会保障部于每年3、4月份下发当年开展“海外赤子为国服务行动计划”的通知，统一规划当年的为国服务活动，由各地各部门分别组织实施;
-(四)各地各部门于年底前对各自组织的为国服务活动进行总结，分析情况，总结经验，并向人力资源社会保障部报送入选“海外赤子为国服务行动计划”的为国服务活动实施情况的总结报告。
-</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>“赤子计划”全称“海外赤子为国服务行动计划”，是人社部2009年提出来的一项智力报国计划。</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>“海外赤子为国服务行动计划”具体包括以下六类：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>(一)人力资源社会保障部组织的示范性留学人员为国服务活动；(二)人力资源社会保障部留学人员和专家服务中心组织的留学人员为国服务活动；(三)人力资源社会保障部与各地方人民政府联合主办大型留学人员人才项目交流及为国服务活动；(四)人力资源社会保障部资助支持由地方人力资源社会保障部门具体组织的留学人员为国服务活动；(五)人力资源社会保障部资助支持由有关部门具体组织的留学人员为国服务活动；(六)人力资源社会保障部资助支持由海外留学人员团体具体组织的为国服务活动。</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>“海外赤子为国服务行动计划”的申报、遴选和组织实施按照以下程序进行：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>(一)各地各部门于每年2月底前将当年拟组织的留学人员为国服务活动计划报送人力资源社会保障部;(二)人力资源社会保障部根据当年为国服务活动的整体安排和重点资助方向，经过评估后，按照不同类型和规模，遴选纳入当年“海外赤子为国服务行动计划”;(三)人力资源社会保障部于每年3、4月份下发当年开展“海外赤子为国服务行动计划”的通知，统一规划当年的为国服务活动，由各地各部门分别组织实施;(四)各地各部门于年底前对各自组织的为国服务活动进行总结，分析情况，总结经验，并向人力资源社会保障部报送入选“海外赤子为国服务行动计划”的为国服务活动实施情况的总结报告。</t>
+    </r>
   </si>
   <si>
     <t>留学人员科技活动项目择优资助</t>
   </si>
   <si>
-    <t xml:space="preserve">
-留学人员科技活动项目择优资助自1985年设立以来，已成为鼓励留学人员回国工作或以千人计划网多种形式为国服务的重要举措，是留学回国服务工作的重要组成部分。
-留学人员科技活动项目择优资助的目标一是适应留学人员回国工作发展需要，鼓励和吸引留学人员回国工作，发挥留学人员在经济社会发展和科技创新中的重要作用。二是资助新近回国的留学人员，从事科技研究，支持留学人员从事重点攻关项目、技术改造项目、具有广泛应用前景的新技术研发项目等，为推动我国经济社会发展作出贡献。三是鼓励和支持海外留学人员短期回国开展合作研究、学术技术交流、考察、讲学等为国服务活动，实现智力回归。
-</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>留学人员科技活动项目择优资助自1985年设立以来，已成为鼓励留学人员回国工作或以千人计划网多种形式为国服务的重要举措，是留学回国服务工作的重要组成部分。</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>留学人员科技活动项目择优资助的目标：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>一是适应留学人员回国工作发展需要，鼓励和吸引留学人员回国工作，发挥留学人员在经济社会发展和科技创新中的重要作用。二是资助新近回国的留学人员，从事科技研究，支持留学人员从事重点攻关项目、技术改造项目、具有广泛应用前景的新技术研发项目等，为推动我国经济社会发展作出贡献。三是鼓励和支持海外留学人员短期回国开展合作研究、学术技术交流、考察、讲学等为国服务活动，实现智力回归。</t>
+    </r>
   </si>
   <si>
     <t>留学人员回国创业支持计划</t>
   </si>
   <si>
-    <t xml:space="preserve">
-留学人员是我国人才资源的重要组成部千人计划网分，是国家的宝贵财富。鼓励留学人员回国创办高新技术企业，对于更好实施人才强国战略，建设创新型国家具有重要意义。为进一步加大对留学人员回国创业的支持力度，按照党中央、国务院要求，根据《留学人员回国工作“十一五”规划》(国人部发〔2006〕123号)，人力资源社会保障部决定实施中国留学人员回国创业启动支持计划，即每年在全国范围内遴选一批创新能力强、发展潜力大、市场前景好的留学回国人员创办的企业，在创办初始启动阶段予以重点支持，以加快其科技成果转化，实现企业快速发展。
-留学人员回国创业启动支持计划的实施坚持以科学发展观为指导，落实人才强国战略，贯彻留学回国工作的方针和要求;坚持优先支持我国急需发展的电子信息制造、生物医药、新材料与新能源等高技术产业以及金融、物流、信息和商务等现代服务产业;坚持政府投入与社会参与相结合，以政府投入带动社会投入，营造留学回国创业的良好环境。通过支持留学回国人员创业，推动产业结构优化，提高整体自主创新能力，逐步发展一批具有核心竞争力的留学人员高新技术企业，培养一批专业素质高、技术前景好、海外联系广、熟悉国际运作规则的现代企业经营管理人才。
-</t>
+    <t>留学人员是我国人才资源的重要组成部千人计划网分，是国家的宝贵财富。鼓励留学人员回国创办高新技术企业，对于更好实施人才强国战略，建设创新型国家具有重要意义。为进一步加大对留学人员回国创业的支持力度，按照党中央、国务院要求，根据《留学人员回国工作“十一五”规划》(国人部发〔2006〕123号)，人力资源社会保障部决定实施中国留学人员回国创业启动支持计划，即每年在全国范围内遴选一批创新能力强、发展潜力大、市场前景好的留学回国人员创办的企业，在创办初始启动阶段予以重点支持，以加快其科技成果转化，实现企业快速发展。留学人员回国创业启动支持计划的实施坚持以科学发展观为指导，落实人才强国战略，贯彻留学回国工作的方针和要求;坚持优先支持我国急需发展的电子信息制造、生物医药、新材料与新能源等高技术产业以及金融、物流、信息和商务等现代服务产业;坚持政府投入与社会参与相结合，以政府投入带动社会投入，营造留学回国创业的良好环境。通过支持留学回国人员创业，推动产业结构优化，提高整体自主创新能力，逐步发展一批具有核心竞争力的留学人员高新技术企业，培养一批专业素质高、技术前景好、海外联系广、熟悉国际运作规则的现代企业经营管理人才。</t>
   </si>
   <si>
     <t>高层次留学人才回国资助计划</t>
   </si>
   <si>
-    <t xml:space="preserve">
-采取积极措施吸引高层次留学人才回国工作对于提高我国科技创新水平和国际竞争力具有重要千人计划网意义。
-高层次留学人才回国资助试点工作开始于2002年，每年资助一批回国工作的高层次留学人才，资助额度为每人60万元，其中中央财政30万元，地方配套30万元。高层次留学人才回国资助试点工作为人才回国后提供了一定的启动经费和生活补贴，对于切实推动国家重点行业、地区发展，造就部门、地区或行业领军人才，增强国家科技创新和国际竞争力，以及体现党和国家对高层次留学人才的关心等方面，都起到了积极作用。
-</t>
+    <t>采取积极措施吸引高层次留学人才回国工作对于提高我国科技创新水平和国际竞争力具有重要千人计划网意义。高层次留学人才回国资助试点工作开始于2002年，每年资助一批回国工作的高层次留学人才，资助额度为每人60万元，其中中央财政30万元，地方配套30万元。高层次留学人才回国资助试点工作为人才回国后提供了一定的启动经费和生活补贴，对于切实推动国家重点行业、地区发展，造就部门、地区或行业领军人才，增强国家科技创新和国际竞争力，以及体现党和国家对高层次留学人才的关心等方面，都起到了积极作用。</t>
   </si>
   <si>
     <t>教育部</t>
@@ -82,48 +128,89 @@
     <t>教育部长江学者奖励计划</t>
   </si>
   <si>
-    <t xml:space="preserve">
-千人计划网“长江学者奖励计划”是中华人民共和国教育部与香港爱国实业家李嘉诚先生为提高中国高等学校学术地位，振兴中国高等教育，共同筹资设立的专项计划。该计划包括实行特聘教授岗位制度和长江学者成就奖两项内容。李嘉诚先生及其领导的长江基建(集团)有限公司第一期投入港币6000万元，教育部筹集相应配套资金，用于在高等学校实行特聘教授岗位制度。李嘉诚先生还另行捐赠港币1000万元，用于设立“长江学者成就奖”。
-为落实科教兴国战略，延揽海内外中青年学界精英，培养造就高水平学科带头人，带动国家重点建设学科赶超或保持国际先进水平，在国务委员、时任教育部部长陈至立同志的亲自主持下，1998年8月，教育部和李嘉诚基金会共同启动实施了“长江学者奖励计划”。“长江学者奖励计划”包括特聘教授、讲座教授岗位制度和长江学者成就奖。在党和国家领导人的直接关怀和高度重视下，在中央有关部门和社会各界的大力支持下，经过高等学校和长江学者们的共同努力，“长江学者奖励计划”成效显著，硕果纷呈，在海内外引起了强烈反响和普遍好评，已经成为国家重要的高层次人才计划。
-</t>
+    <t>千人计划网“长江学者奖励计划”是中华人民共和国教育部与香港爱国实业家李嘉诚先生为提高中国高等学校学术地位，振兴中国高等教育，共同筹资设立的专项计划。该计划包括实行特聘教授岗位制度和长江学者成就奖两项内容。李嘉诚先生及其领导的长江基建(集团)有限公司第一期投入港币6000万元，教育部筹集相应配套资金，用于在高等学校实行特聘教授岗位制度。李嘉诚先生还另行捐赠港币1000万元，用于设立“长江学者成就奖”。为落实科教兴国战略，延揽海内外中青年学界精英，培养造就高水平学科带头人，带动国家重点建设学科赶超或保持国际先进水平，在国务委员、时任教育部部长陈至立同志的亲自主持下，1998年8月，教育部和李嘉诚基金会共同启动实施了“长江学者奖励计划”。“长江学者奖励计划”包括特聘教授、讲座教授岗位制度和长江学者成就奖。在党和国家领导人的直接关怀和高度重视下，在中央有关部门和社会各界的大力支持下，经过高等学校和长江学者们的共同努力，“长江学者奖励计划”成效显著，硕果纷呈，在海内外引起了强烈反响和普遍好评，已经成为国家重要的高层次人才计划。</t>
   </si>
   <si>
     <t>高校学科创新引智计划</t>
   </si>
   <si>
-    <t xml:space="preserve">
-高等学校学科创新引智千人计划网计划由教育部和国家外国专家局联合组织实施，以建设学科创新引智基地为手段，加大成建制引进海外人才的力度，在高等学校汇聚一批世界一流人才，进一步提升高等学校引进国外智力的层次，促进海外人才与国内科研骨干的融合，开展高水平的合作研究和学术交流，重点建设一批具有创新能力的学科，提升高等学校的科技创新能力和综合竞争力。“111计划”的总体目标是瞄准国际学科发展前沿，围绕国家目标，结合高等学校具有国际前沿水平或国家重点发展的学科领域，以国家重点学科为基础，以国家、省、部级重点科研基地为平台，从世界排名前100位的大学或研究机构的优势学科队伍中，引进、汇聚1000余名海外学术大师、学术骨干，配备一批国内优秀的科研骨干，形成高水平的研究队伍，建设100个左右世界一流的学科创新基地，努力创造具有国际影响的科研成果，提高高等学校的整体水平和国际地位。
-各学科创新引智基地建设期为5年，经费来源为：列入“985 工程”的高等学校项目经费由国家外国专家局和教育部共同筹措，未列入“985 工程”的高等学校项目经费由国家外国专家局和高等学校主管部门共同筹措。
-</t>
+    <t>高等学校学科创新引智千人计划网计划由教育部和国家外国专家局联合组织实施，以建设学科创新引智基地为手段，加大成建制引进海外人才的力度，在高等学校汇聚一批世界一流人才，进一步提升高等学校引进国外智力的层次，促进海外人才与国内科研骨干的融合，开展高水平的合作研究和学术交流，重点建设一批具有创新能力的学科，提升高等学校的科技创新能力和综合竞争力。“111计划”的总体目标是瞄准国际学科发展前沿，围绕国家目标，结合高等学校具有国际前沿水平或国家重点发展的学科领域，以国家重点学科为基础，以国家、省、部级重点科研基地为平台，从世界排名前100位的大学或研究机构的优势学科队伍中，引进、汇聚1000余名海外学术大师、学术骨干，配备一批国内优秀的科研骨干，形成高水平的研究队伍，建设100个左右世界一流的学科创新基地，努力创造具有国际影响的科研成果，提高高等学校的整体水平和国际地位。各学科创新引智基地建设期为5年，经费来源为：列入“985 工程”的高等学校项目经费由国家外国专家局和教育部共同筹措，未列入“985 工程”的高等学校项目经费由国家外国专家局和高等学校主管部门共同筹措。</t>
   </si>
   <si>
     <t>教育部春晖计划</t>
   </si>
   <si>
-    <t xml:space="preserve">
-为了支持留学人员回国服务，教育部199千人计划网7年全面实施“春晖计划”，由国家教育部拨出专项经费资助在外留学人员短期回国工作。截至1997年底，“春晖计划”共资助600多名在外留学人员短期回国服务。“春晖计划”主要资助对象为在外优秀尖子留学人员。为提高资助效益，教育部瞄准中国经济社会发展中的重大课题，开展了一系列有效的活动。如：针对中国区域经济发展非均衡问题实施的“留法学者支持西部建设项目”;针对中国老工业基地改造发展问题实施的“留学人员为辽宁大中企业技术改造服务项目”;为培养适应国际金融市场的发展、能以工程方式解决复杂金融问题高级人才而实施的“培养金融工程博士项目”等。
-“春晖计划”实施以来，在留学人员中产生了广泛的积极的影响，激发了广大在外留学人员的爱国热情。截止到1998年底，“春晖计划”已资助了 1100多名在外留学人员短期回国工作。
-</t>
+    <t>为了支持留学人员回国服务，教育部199千人计划网7年全面实施“春晖计划”，由国家教育部拨出专项经费资助在外留学人员短期回国工作。截至1997年底，“春晖计划”共资助600多名在外留学人员短期回国服务。“春晖计划”主要资助对象为在外优秀尖子留学人员。为提高资助效益，教育部瞄准中国经济社会发展中的重大课题，开展了一系列有效的活动。如：针对中国区域经济发展非均衡问题实施的“留法学者支持西部建设项目”;针对中国老工业基地改造发展问题实施的“留学人员为辽宁大中企业技术改造服务项目”;为培养适应国际金融市场的发展、能以工程方式解决复杂金融问题高级人才而实施的“培养金融工程博士项目”等。“春晖计划”实施以来，在留学人员中产生了广泛的积极的影响，激发了广大在外留学人员的爱国热情。截止到1998年底，“春晖计划”已资助了 1100多名在外留学人员短期回国工作。</t>
   </si>
   <si>
     <t>教育部新世纪优秀人才支持计划</t>
   </si>
   <si>
-    <t xml:space="preserve">
-“新世纪优秀人才支持计划”属《高等学校“高层次创造性人才计划”实施方案》中人才培养和支持体系中的第二层次。是教育部设立的专项人才支持计划，支持高等学校优秀青年学术带头人开展教学改革，围绕国家重大科技和工程问题、哲学社会科学问题和国际科学与技术前沿进行创新研究。着眼培养、支持一批学术基础扎实，具有创新能力和突出发展潜力的优秀青年学术带头人。
-一、实施范围：全国普通高等学校，包括军队院校。
-二、资助领域：自然科学和社会科学研究领域。每年遴选支持1000名左右，自然科学类每人资助经费50万元，人文社会科学类每人资助经费20万元。按数理、化学化工、农业、能源、信息、人口健康、资源环境、材料、先进制造、管理、人文社会科学等11个研究领域进行归口资助。
-三、申报条件
-1、热爱社会主义祖国，坚持四项基本原则，道德高尚，治学严谨，具有强烈的事业心和团队精神;
-2、在教学改革、科学研究和高新技术工程化、产业化方面取得同行公认的创新性成果;
-3、具有较大的发展潜力，拟开展的研究工作有创新性构想，并有充分的时间和精神从事本计划支持的研究工作;
-4、在国内高等学校教学和科研第一线工作，并受聘副教授以上的专业技术职务;
-5、一般应具有博士学位;
-6、在申报当年1月1日，自然科学领域申请者年龄一般不超过40周岁，哲学社会科学领域申请者年龄一般不超过45周岁;
-7、未实施“985工程”重点建设项目的高等学校，其申请者所在学校和主管部门能够承诺匹配所要求的资助经费;
-8、申请单位要坚持公开遴选、择优推荐的原则，坚持人才、平台(基地)和项目的有机衔接，适当向重点建设的创新平台(基地)倾斜;
-9、已获得“长江学者特聘教授”、“国家杰出青年科学基金”、中科院“百人计划”、“跨世纪优秀人才培养计划”、“高校青年教师奖”资助者不得再申请本计划。
-</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>“新世纪优秀人才支持计划”属《高等学校“高层次创造性人才计划”实施方案》中人才培养和支持体系中的第二层次。是教育部设立的专项人才支持计划，支持高等学校优秀青年学术带头人开展教学改革，围绕国家重大科技和工程问题、哲学社会科学问题和国际科学与技术前沿进行创新研究。着眼培养、支持一批学术基础扎实，具有创新能力和突出发展潜力的优秀青年学术带头人。</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>一、实施范围：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>全国普通高等学校，包括军队院校。</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>二、资助领域</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>：自然科学和社会科学研究领域。每年遴选支持1000名左右，自然科学类每人资助经费50万元，人文社会科学类每人资助经费20万元。按数理、化学化工、农业、能源、信息、人口健康、资源环境、材料、先进制造、管理、人文社会科学等11个研究领域进行归口资助。</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>三、申报条件：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>1、热爱社会主义祖国，坚持四项基本原则，道德高尚，治学严谨，具有强烈的事业心和团队精神;2、在教学改革、科学研究和高新技术工程化、产业化方面取得同行公认的创新性成果;3、具有较大的发展潜力，拟开展的研究工作有创新性构想，并有充分的时间和精神从事本计划支持的研究工作;4、在国内高等学校教学和科研第一线工作，并受聘副教授以上的专业技术职务;5、一般应具有博士学位;6、在申报当年1月1日，自然科学领域申请者年龄一般不超过40周岁，哲学社会科学领域申请者年龄一般不超过45周岁;7、未实施“985工程”重点建设项目的高等学校，其申请者所在学校和主管部门能够承诺匹配所要求的资助经费;8、申请单位要坚持公开遴选、择优推荐的原则，坚持人才、平台(基地)和项目的有机衔接，适当向重点建设的创新平台(基地)倾斜;9、已获得“长江学者特聘教授”、“国家杰出青年科学基金”、中科院“百人计划”、“跨世纪优秀人才培养计划”、“高校青年教师奖”资助者不得再申请本计划。</t>
+    </r>
   </si>
   <si>
     <t>中国科学院</t>
@@ -132,23 +219,39 @@
     <t>中科院百人计划</t>
   </si>
   <si>
-    <t xml:space="preserve">
-“百人计划”是19千人计划网94年中国科学院启动的一项高目标、高标准和高强度支持的人才引进与培养计划。朱日祥、曹健林、卢柯等14人成为1994年首批支持对象。该项目原计划在20世纪的最后几年中，以每人200万元的资助力度从国外吸引并培养百余名优秀青年学术带头人。十几年来，百人计划为中国科学凝聚了大批优秀人才，其中从海外引进的杰出青年人才上千位。
-招聘对象：以科学(工程)中心、开放实验室、青年实验室、等为主要基地，按需要招聘人才。
-申请办法：申请者可按照中科院定期发布的“百人计划”招聘指南，由他人推荐或自荐。具体办法、招聘指南以及《中国科学院“百人计划”候选人推荐(自荐)表》可向中科院“百人计划”办公室或我驻外使(领)馆教育处(组)索取。
-受聘后待遇：中科院将根据学科(工程)发展需要和本人条件，给予较强的一次性启动经费，主要用于购置必需的仪器设备、本人住房等。入选人员的工资待遇，除按国家规定发给的外，中科院将予特别津贴，津贴额度视具体情况确定。
-</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>“百人计划”是19千人计划网94年中国科学院启动的一项高目标、高标准和高强度支持的人才引进与培养计划。朱日祥、曹健林、卢柯等14人成为1994年首批支持对象。该项目原计划在20世纪的最后几年中，以每人200万元的资助力度从国外吸引并培养百余名优秀青年学术带头人。十几年来，百人计划为中国科学凝聚了大批优秀人才，其中从海外引进的杰出青年人才上千位。招聘对象：以科学(工程)中心、开放实验室、青年实验室、等为主要基地，按需要招聘人才。</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>申请办法：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>申请者可按照中科院定期发布的“百人计划”招聘指南，由他人推荐或自荐。具体办法、招聘指南以及《中国科学院“百人计划”候选人推荐(自荐)表》可向中科院“百人计划”办公室或我驻外使(领)馆教育处(组)索取。受聘后待遇：中科院将根据学科(工程)发展需要和本人条件，给予较强的一次性启动经费，主要用于购置必需的仪器设备、本人住房等。入选人员的工资待遇，除按国家规定发给的外，中科院将予特别津贴，津贴额度视具体情况确定。</t>
+    </r>
   </si>
   <si>
     <t>中科院创新团队国际合作伙伴计划</t>
   </si>
   <si>
-    <t xml:space="preserve">
-为推动相关的重点或优势学千人计划网科、交叉学科的发展，促进国际科技合作与学术交流，培养和凝聚一批优秀的高层次人才队伍，不断提升中国科学院新一代骨干人才在国 际上的学术地位和竞争实力，2001年中科院启动了“创新团队国际合作伙伴计划”，依托具有良好工作基础和实验条件的国家或院重点实验室，组建和支持一 批创新团队。
-创新团队核心成员由国内优秀科学家和在海外工作的知名学者组成，国内科学家要求为“百人计划”入选者、“长江学者奖励计划”入选者、获国家杰出青年科学基 金等科研人员。海外成员为在著名高校或科研机构具有(或相当于)副教授以上职务的优秀华人学者。
-截至2005年，中科院在有关领域中共组建了35个创新团队，共引进海外知名学者224人，他们在相关学科领域具有相当高的学术水平和科研创新活力。同时 凝聚国内相关科学研究领域的优秀学者362人。
-中科院将支持院属研究机构组建的创新团队数百万元的经费支持，国家外国专家局将支持团队运行第一年度海外成员的国际旅费和在华工作期间生活费等，并为团队海外成员办理来华工作许可和办理“外国专家证”开辟“绿色通道”，并提供相应工作和生活方面的便利条件。
-</t>
+    <t>为推动相关的重点或优势学千人计划网科、交叉学科的发展，促进国际科技合作与学术交流，培养和凝聚一批优秀的高层次人才队伍，不断提升中国科学院新一代骨干人才在国 际上的学术地位和竞争实力，2001年中科院启动了“创新团队国际合作伙伴计划”，依托具有良好工作基础和实验条件的国家或院重点实验室，组建和支持一 批创新团队。创新团队核心成员由国内优秀科学家和在海外工作的知名学者组成，国内科学家要求为“百人计划”入选者、“长江学者奖励计划”入选者、获国家杰出青年科学基 金等科研人员。海外成员为在著名高校或科研机构具有(或相当于)副教授以上职务的优秀华人学者。截至2005年，中科院在有关领域中共组建了35个创新团队，共引进海外知名学者224人，他们在相关学科领域具有相当高的学术水平和科研创新活力。同时 凝聚国内相关科学研究领域的优秀学者362人。中科院将支持院属研究机构组建的创新团队数百万元的经费支持，国家外国专家局将支持团队运行第一年度海外成员的国际旅费和在华工作期间生活费等，并为团队海外成员办理来华工作许可和办理“外国专家证”开辟“绿色通道”，并提供相应工作和生活方面的便利条件。</t>
   </si>
   <si>
     <t>自然科学基金委</t>
@@ -157,11 +260,7 @@
     <t>自然科学基金委杰出青年计划</t>
   </si>
   <si>
-    <t xml:space="preserve">
-为促进青年科学技术人才的成长，并鼓励海外学者回国工作，加速培养、造就一批进入世界科技前沿的跨世纪优秀学术带头人，国家特设立国家杰出青年科学基金，并由科学基金委员会负责组织实施，进行日常管理。国家杰出青年科学基金资助国内与尚在境外和即将回国定居工作的优秀青年学者，在国内进行自然科学的基础研究和应用基础研究。千人计划网
-国家杰出青年科学基金是国家为促进青年科学和技术人才的成长, 鼓励海外学者回国工作, 加速培养造就一批进入世界科技前沿的优秀学术带头人而特别设立的。“十五”期间, 国家杰出青年科学基金每年资助优秀青年学者160名左右, 每人资助经费一般为80 ～100万元, 研究期限为4年。
-国家杰出青年科学基金支持在基础研究方面已取得突出成绩的青年学者自主选择研究方向开展创新研究，促进青年科学技术人才的成长，吸引海外人才，培养造就一批进入世界科技前沿的优秀学术带头人。该基金资助全职在中国内地工作的优秀华人青年学者从事自然科学基础研究工作。本基金所指的中国内地，系指我国除港、 澳、台地区之外的省、自治区和直辖市。国家杰出青年科学基金每年受理一次。
-</t>
+    <t>为促进青年科学技术人才的成长，并鼓励海外学者回国工作，加速培养、造就一批进入世界科技前沿的跨世纪优秀学术带头人，国家特设立国家杰出青年科学基金，并由科学基金委员会负责组织实施，进行日常管理。国家杰出青年科学基金资助国内与尚在境外和即将回国定居工作的优秀青年学者，在国内进行自然科学的基础研究和应用基础研究。国家杰出青年科学基金是国家为促进青年科学和技术人才的成长, 鼓励海外学者回国工作, 加速培养造就一批进入世界科技前沿的优秀学术带头人而特别设立的。“十五”期间, 国家杰出青年科学基金每年资助优秀青年学者160名左右, 每人资助经费一般为80 ～100万元, 研究期限为4年。国家杰出青年科学基金支持在基础研究方面已取得突出成绩的青年学者自主选择研究方向开展创新研究，促进青年科学技术人才的成长，吸引海外人才，培养造就一批进入世界科技前沿的优秀学术带头人。该基金资助全职在中国内地工作的优秀华人青年学者从事自然科学基础研究工作。本基金所指的中国内地，系指我国除港、 澳、台地区之外的省、自治区和直辖市。国家杰出青年科学基金每年受理一次。</t>
   </si>
   <si>
     <t>中国科协</t>
@@ -170,12 +269,33 @@
     <t>海智计划</t>
   </si>
   <si>
-    <t xml:space="preserve">
-2003年中国科协和35个海外科技团体共千人计划网同发起，2004年2月启动实施“海外智力为国服务行动计划”(简称“海智计划”)旨在贯彻科教兴国、人才强国战略，发挥中国科协的桥梁纽带作用，同海外科技团体及科技工作者建立经常、密切、畅通和便捷的联系，建立规范有效的工作机制，动员、团结和组织广大海外科技工作者为促进科学技术创新，推动我国经济社会发展，实现中华民族的伟大复兴贡献智慧和力量。
-海智计划目标：
-1.海外主要科技团体积极参与本计划的实施，并成为中国科协的海外联系团体，同中国科协建立和保持经常的、密切的和畅通的联系。各级科协积极参与本计划的实施，实现当地需求与海外智力资源的有效对接，为当地的科技与经济社会发展做出贡献;
-2.建立和完善规范、有效的国内外联系及工作机制，通过海外科技团体吸引和组织广大海外科技工作者积极参与科协根据国家发展战略组织的各项重要活动，使广大海外科技工作者成为国家实施人才强国战略、应对激烈的国际人才竞争和国家经济建设需要的不可缺少的重要力量。
-</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>2003年中国科协和35个海外科技团体共千人计划网同发起，2004年2月启动实施“海外智力为国服务行动计划”(简称“海智计划”)旨在贯彻科教兴国、人才强国战略，发挥中国科协的桥梁纽带作用，同海外科技团体及科技工作者建立经常、密切、畅通和便捷的联系，建立规范有效的工作机制，动员、团结和组织广大海外科技工作者为促进科学技术创新，推动我国经济社会发展，实现中华民族的伟大复兴贡献智慧和力量。</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>海智计划目标</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>：1.海外主要科技团体积极参与本计划的实施，并成为中国科协的海外联系团体，同中国科协建立和保持经常的、密切的和畅通的联系。各级科协积极参与本计划的实施，实现当地需求与海外智力资源的有效对接，为当地的科技与经济社会发展做出贡献;2.建立和完善规范、有效的国内外联系及工作机制，通过海外科技团体吸引和组织广大海外科技工作者积极参与科协根据国家发展战略组织的各项重要活动，使广大海外科技工作者成为国家实施人才强国战略、应对激烈的国际人才竞争和国家经济建设需要的不可缺少的重要力量。</t>
+    </r>
   </si>
   <si>
     <t>国家海洋局</t>
@@ -184,9 +304,7 @@
     <t>海洋系统“十二五”引进留学人才计划</t>
   </si>
   <si>
-    <t xml:space="preserve">
-为贯彻落实《全国海洋人才发展中长期规划纲要（2010-2020年）》，积极引进留学人才，大力加强我国海洋人才队伍建设，有效提升我国海洋管理和科技水平，增强国际竞争力，国家海洋局制定印发了《国家海洋局引进高层次海洋人才实施办法（试行）》和《海洋系 统“十二五”引进留学人才计划》。海洋系统计划在“十二五”期间引进百名在国外取得博士学位的留学人才。2011年，海洋 系统提供87个科研岗位，面向国内外招收留学人才。热忱欢迎国内外广大学子和科研人员投身祖国海洋事业，为建设海洋强国做出贡献。
-</t>
+    <t>为贯彻落实《全国海洋人才发展中长期规划纲要（2010-2020年）》，积极引进留学人才，大力加强我国海洋人才队伍建设，有效提升我国海洋管理和科技水平，增强国际竞争力，国家海洋局制定印发了《国家海洋局引进高层次海洋人才实施办法（试行）》和《海洋系 统“十二五”引进留学人才计划》。海洋系统计划在“十二五”期间引进百名在国外取得博士学位的留学人才。2011年，海洋 系统提供87个科研岗位，面向国内外招收留学人才。热忱欢迎国内外广大学子和科研人员投身祖国海洋事业，为建设海洋强国做出贡献。</t>
   </si>
 </sst>
 </file>
@@ -195,11 +313,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -359,8 +477,21 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="33">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -369,6 +500,24 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -554,12 +703,27 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="10">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -668,10 +832,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -680,137 +844,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -826,17 +990,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1196,9 +1366,9 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="20.25" style="2" customWidth="1"/>
-    <col min="2" max="2" width="33.875" style="3" customWidth="1"/>
-    <col min="3" max="3" width="105.5" style="4" customWidth="1"/>
+    <col min="1" max="1" width="19.375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="35.875" style="3" customWidth="1"/>
+    <col min="3" max="3" width="92.25" style="4" customWidth="1"/>
     <col min="4" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
@@ -1206,154 +1376,154 @@
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="5" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" ht="175.5" spans="1:3">
+      <c r="A2" s="6" t="s">
         <v>2</v>
       </c>
+      <c r="B2" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="2" ht="256.5" spans="1:3">
-      <c r="A2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="7" t="s">
+    <row r="3" ht="81" spans="1:3">
+      <c r="A3" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="9" t="s">
         <v>5</v>
       </c>
+      <c r="C3" s="9" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="3" ht="121.5" spans="1:3">
-      <c r="A3" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="7" t="s">
+    <row r="4" ht="148.5" spans="1:3">
+      <c r="A4" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="7" t="s">
         <v>7</v>
       </c>
+      <c r="C4" s="6" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="4" ht="175.5" spans="1:3">
-      <c r="A4" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="7" t="s">
+    <row r="5" ht="67.5" spans="1:3">
+      <c r="A5" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="8" t="s">
         <v>9</v>
       </c>
+      <c r="C5" s="8" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="5" ht="108" spans="1:3">
-      <c r="A5" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" s="7" t="s">
+    <row r="6" ht="135" spans="1:3">
+      <c r="A6" s="6" t="s">
         <v>11</v>
       </c>
+      <c r="B6" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>13</v>
+      </c>
     </row>
-    <row r="6" ht="162" spans="1:3">
-      <c r="A6" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" s="7" t="s">
+    <row r="7" ht="135" spans="1:3">
+      <c r="A7" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="8" t="s">
         <v>14</v>
       </c>
+      <c r="C7" s="8" t="s">
+        <v>15</v>
+      </c>
     </row>
-    <row r="7" ht="162" spans="1:3">
-      <c r="A7" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C7" s="7" t="s">
+    <row r="8" ht="108" spans="1:3">
+      <c r="A8" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="7" t="s">
         <v>16</v>
       </c>
+      <c r="C8" s="6" t="s">
+        <v>17</v>
+      </c>
     </row>
-    <row r="8" ht="148.5" spans="1:3">
-      <c r="A8" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C8" s="7" t="s">
+    <row r="9" ht="216" spans="1:3">
+      <c r="A9" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="8" t="s">
         <v>18</v>
       </c>
+      <c r="C9" s="9" t="s">
+        <v>19</v>
+      </c>
     </row>
-    <row r="9" ht="310.5" spans="1:3">
-      <c r="A9" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="C9" s="7" t="s">
+    <row r="10" ht="121.5" spans="1:3">
+      <c r="A10" s="6" t="s">
         <v>20</v>
       </c>
+      <c r="B10" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>22</v>
+      </c>
     </row>
-    <row r="10" ht="175.5" spans="1:3">
-      <c r="A10" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C10" s="7" t="s">
+    <row r="11" ht="135" spans="1:3">
+      <c r="A11" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" s="8" t="s">
         <v>23</v>
       </c>
+      <c r="C11" s="8" t="s">
+        <v>24</v>
+      </c>
     </row>
-    <row r="11" ht="216" spans="1:3">
-      <c r="A11" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C11" s="7" t="s">
+    <row r="12" ht="135" spans="1:3">
+      <c r="A12" s="6" t="s">
         <v>25</v>
       </c>
+      <c r="B12" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>27</v>
+      </c>
     </row>
-    <row r="12" ht="189" spans="1:3">
-      <c r="A12" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="C12" s="7" t="s">
+    <row r="13" ht="121.5" spans="1:3">
+      <c r="A13" s="8" t="s">
         <v>28</v>
       </c>
+      <c r="B13" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>30</v>
+      </c>
     </row>
-    <row r="13" ht="189" spans="1:3">
-      <c r="A13" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="C13" s="7" t="s">
+    <row r="14" ht="67.5" spans="1:3">
+      <c r="A14" s="6" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="14" ht="94.5" spans="1:3">
-      <c r="A14" s="8" t="s">
+      <c r="B14" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="B14" s="6" t="s">
+      <c r="C14" s="6" t="s">
         <v>33</v>
-      </c>
-      <c r="C14" s="7" t="s">
-        <v>34</v>
       </c>
     </row>
   </sheetData>
